--- a/biology/Zoologie/Diguetia/Diguetia.xlsx
+++ b/biology/Zoologie/Diguetia/Diguetia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diguetia est un genre d'araignées aranéomorphes de la famille des Diguetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diguetia est un genre d'araignées aranéomorphes de la famille des Diguetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Mexique, aux États-Unis et en Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent au Mexique, aux États-Unis et en Argentine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anatomie interne a été étudiée par Lopez chez Diguetia canities et présente des particularités remarquables[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomie interne a été étudiée par Lopez chez Diguetia canities et présente des particularités remarquables.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 17/11/2022)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 17/11/2022) :
 Diguetia albolineata (O. Pickard-Cambridge, 1895)
 Diguetia andersoni Gertsch, 1958
 Diguetia balandra Jiménez, Cardiel &amp; Chamé-Vázquez, 2022
@@ -614,10 +632,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1895 dans les Sicariidae.
-Ervig[3] a été placé en synonymie par Simon en 1898[4].
+Ervig a été placé en synonymie par Simon en 1898.
 </t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Léon Diguet[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Léon Diguet.
 </t>
         </is>
       </c>
@@ -677,7 +699,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Simon, 1895 : « Sur les arachnides recueillis en Basse-Californie par M. Diguet. » Bulletin du Muséum d'Histoire Naturelle, vol. 1895, p. 105-107 (texte intégral).</t>
         </is>
